--- a/ESGStockList.xlsx
+++ b/ESGStockList.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/baf176ae4d1433f9/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/baf176ae4d1433f9/Desktop/MTI/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="8_{EFA6C28B-5D4E-424D-A9D0-510EC4F5601A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7D695C52-2B7E-4F6E-9CD8-F54957339DC1}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="8_{EFA6C28B-5D4E-424D-A9D0-510EC4F5601A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{28A82A58-9340-4C53-9524-804D5BDFB71E}"/>
   <bookViews>
-    <workbookView xWindow="-3690" yWindow="5475" windowWidth="7500" windowHeight="11205" xr2:uid="{7641E60C-2DB3-434C-B9C4-18E430004F78}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="11385" xr2:uid="{7641E60C-2DB3-434C-B9C4-18E430004F78}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -430,7 +430,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -459,53 +459,58 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>90</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4">
-        <v>364</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5">
-        <v>45</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6">
+      <c r="A6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="2">
         <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B7">
-        <v>25</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="2">
-        <v>80</v>
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>364</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:B8" xr:uid="{88632811-CD07-4DE9-8D5D-7B2FF96E9A7A}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B8">
+      <sortCondition ref="A1:A8"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
